--- a/teaching/traditional_assets/database/data/barbados/barbados_green_renewable_energy.xlsx
+++ b/teaching/traditional_assets/database/data/barbados/barbados_green_renewable_energy.xlsx
@@ -597,52 +597,64 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1.276699029126214</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="J2">
-        <v>-1.276699029126214</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="K2">
-        <v>-0.268</v>
+        <v>0.175</v>
       </c>
       <c r="L2">
-        <v>-1.300970873786408</v>
+        <v>0.6433823529411764</v>
       </c>
       <c r="M2">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05604395604395605</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-3.805970149253731</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.05604395604395605</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-3.805970149253731</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>0.138</v>
+        <v>0.59</v>
       </c>
       <c r="V2">
-        <v>0.007582417582417583</v>
+        <v>0.025</v>
+      </c>
+      <c r="W2">
+        <v>0.01762336354481369</v>
       </c>
       <c r="X2">
-        <v>0.09309174191156971</v>
+        <v>0.09238291079777955</v>
+      </c>
+      <c r="Y2">
+        <v>-0.07475954725296585</v>
+      </c>
+      <c r="Z2">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="AA2">
+        <v>0.01879084967320261</v>
       </c>
       <c r="AB2">
-        <v>0.09309174191156971</v>
+        <v>0.09238291079777955</v>
+      </c>
+      <c r="AC2">
+        <v>-0.07359206112457693</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -654,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.138</v>
+        <v>-0.59</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -663,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.007640349905879749</v>
+        <v>-0.02564102564102564</v>
       </c>
       <c r="AK2">
-        <v>-0.01409313725490196</v>
+        <v>-0.03087388801674516</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -698,52 +710,64 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1.276699029126214</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="J3">
-        <v>-1.276699029126214</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="K3">
-        <v>-0.268</v>
+        <v>0.175</v>
       </c>
       <c r="L3">
-        <v>-1.300970873786408</v>
+        <v>0.6433823529411764</v>
       </c>
       <c r="M3">
-        <v>1.02</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.05604395604395605</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-3.805970149253731</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>1.02</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.05604395604395605</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-3.805970149253731</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>0.138</v>
+        <v>0.59</v>
       </c>
       <c r="V3">
-        <v>0.007582417582417583</v>
+        <v>0.025</v>
+      </c>
+      <c r="W3">
+        <v>0.01762336354481369</v>
       </c>
       <c r="X3">
-        <v>0.09309174191156971</v>
+        <v>0.09238291079777955</v>
+      </c>
+      <c r="Y3">
+        <v>-0.07475954725296585</v>
+      </c>
+      <c r="Z3">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="AA3">
+        <v>0.01879084967320261</v>
       </c>
       <c r="AB3">
-        <v>0.09309174191156971</v>
+        <v>0.09238291079777955</v>
+      </c>
+      <c r="AC3">
+        <v>-0.07359206112457693</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -755,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.138</v>
+        <v>-0.59</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -764,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.007640349905879749</v>
+        <v>-0.02564102564102564</v>
       </c>
       <c r="AK3">
-        <v>-0.01409313725490196</v>
+        <v>-0.03087388801674516</v>
       </c>
       <c r="AL3">
         <v>0</v>
